--- a/docs/6_cronograma.xlsx
+++ b/docs/6_cronograma.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="B2:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,6 +819,9 @@
       </c>
     </row>
     <row r="4" spans="2:18">
+      <c r="E4" s="6">
+        <v>3026</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>47</v>
       </c>
@@ -863,6 +866,9 @@
       </c>
     </row>
     <row r="5" spans="2:18">
+      <c r="E5" s="6">
+        <v>3033</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>47</v>
       </c>
@@ -878,11 +884,17 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
       <c r="M5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>41</v>
@@ -901,6 +913,9 @@
       </c>
     </row>
     <row r="6" spans="2:18">
+      <c r="E6" s="6">
+        <v>3035</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>48</v>
       </c>

--- a/docs/6_cronograma.xlsx
+++ b/docs/6_cronograma.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprints" sheetId="2" r:id="rId1"/>
-    <sheet name="Eventos" sheetId="1" r:id="rId2"/>
+    <sheet name="Plano Geral" sheetId="3" r:id="rId2"/>
+    <sheet name="Ciclos de vida" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -107,9 +108,6 @@
     <t>Feat. R</t>
   </si>
   <si>
-    <t>Feat. E</t>
-  </si>
-  <si>
     <t>Proj. E</t>
   </si>
   <si>
@@ -162,6 +160,36 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DBW2</t>
+  </si>
+  <si>
+    <t>LW2</t>
+  </si>
+  <si>
+    <t>LOW2</t>
+  </si>
+  <si>
+    <t>LFW2</t>
+  </si>
+  <si>
+    <t>Fim (Plan)</t>
+  </si>
+  <si>
+    <t>Fim (Real)</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>1_21</t>
+  </si>
+  <si>
+    <t>2_21</t>
   </si>
 </sst>
 </file>
@@ -325,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -387,6 +415,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R6"/>
+  <dimension ref="B2:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,19 +729,18 @@
     <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="6" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="30"/>
-    <col min="17" max="17" width="9.140625" style="26"/>
-    <col min="18" max="18" width="9.140625" style="30"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="15.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="30"/>
+    <col min="16" max="16" width="9.140625" style="26"/>
+    <col min="17" max="17" width="9.140625" style="30"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="32" customFormat="1">
+    <row r="2" spans="2:17" s="32" customFormat="1">
       <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
@@ -720,22 +751,22 @@
         <v>25</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>31</v>
@@ -747,10 +778,10 @@
         <v>33</v>
       </c>
       <c r="N2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>35</v>
@@ -758,11 +789,8 @@
       <c r="Q2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
@@ -776,57 +804,54 @@
         <v>3012</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I3" s="6">
         <v>4</v>
       </c>
       <c r="J3" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K3" s="6">
         <v>8</v>
       </c>
       <c r="L3" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M3" s="6">
         <v>12</v>
       </c>
-      <c r="N3" s="6">
-        <v>12</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="29">
-        <f t="shared" ref="P3:Q6" si="0">I3+K3+M3</f>
-        <v>24</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R3" s="30">
-        <f>Q3-P3</f>
+      <c r="N3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="29">
+        <f>J3+L3</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="28">
+        <f>K3+M3</f>
+        <v>20</v>
+      </c>
+      <c r="Q3" s="30">
+        <f>P3-O3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:17">
       <c r="E4" s="6">
         <v>3026</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
@@ -841,42 +866,39 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="6">
         <v>4</v>
       </c>
-      <c r="N4" s="6">
-        <v>4</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R4" s="30">
-        <f>Q4-P4</f>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="29">
+        <f>J4+L4</f>
+        <v>5</v>
+      </c>
+      <c r="P4" s="28">
+        <f>K4+M4</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>P4-O4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:17">
       <c r="E5" s="6">
         <v>3033</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -893,55 +915,64 @@
       <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q5" s="28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R5" s="30">
-        <f>Q5-P5</f>
+      <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="29">
+        <f>J5+L5</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="28">
+        <f>K5+M5</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>P5-O5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:17">
       <c r="E6" s="6">
         <v>3035</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="30">
-        <f>Q6-P6</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
         <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>12</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="29">
+        <f>J6+L6</f>
+        <v>18</v>
+      </c>
+      <c r="P6" s="28">
+        <f>K6+M6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
+        <f>P6-O6</f>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +982,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="33" customFormat="1">
+      <c r="B2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="27">
+        <v>44277</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AQ28"/>
   <sheetViews>

--- a/docs/6_cronograma.xlsx
+++ b/docs/6_cronograma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sprints" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>2_21</t>
+  </si>
+  <si>
+    <t>Req. OK</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>LEGW</t>
+  </si>
+  <si>
+    <t>LEGW_CCA</t>
+  </si>
+  <si>
+    <t>Plan</t>
   </si>
 </sst>
 </file>
@@ -713,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q6"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,18 +744,19 @@
     <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="6" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="6"/>
-    <col min="14" max="14" width="15.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="30"/>
-    <col min="16" max="16" width="9.140625" style="26"/>
-    <col min="17" max="17" width="9.140625" style="30"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="6" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="30"/>
+    <col min="17" max="17" width="9.140625" style="26"/>
+    <col min="18" max="18" width="9.140625" style="30"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" s="32" customFormat="1">
+    <row r="2" spans="2:18" s="32" customFormat="1">
       <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
@@ -762,35 +778,38 @@
       <c r="H2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:18">
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
@@ -812,38 +831,41 @@
       <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6">
         <v>4</v>
-      </c>
-      <c r="J3" s="6">
-        <v>8</v>
       </c>
       <c r="K3" s="6">
         <v>8</v>
       </c>
       <c r="L3" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M3" s="6">
         <v>12</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="6">
+        <v>12</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="29">
-        <f>J3+L3</f>
+      <c r="P3" s="29">
+        <f t="shared" ref="P3:Q6" si="0">K3+M3</f>
         <v>20</v>
       </c>
-      <c r="P3" s="28">
-        <f>K3+M3</f>
+      <c r="Q3" s="28">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q3" s="30">
-        <f>P3-O3</f>
+      <c r="R3" s="30">
+        <f>Q3-P3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="E4" s="6">
         <v>3026</v>
       </c>
@@ -856,8 +878,8 @@
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6">
-        <v>1</v>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -866,28 +888,31 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="6">
+        <v>4</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="29">
-        <f>J4+L4</f>
+      <c r="P4" s="29">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P4" s="28">
-        <f>K4+M4</f>
+      <c r="Q4" s="28">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="30">
-        <f>P4-O4</f>
+      <c r="R4" s="30">
+        <f>Q4-P4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="E5" s="6">
         <v>3033</v>
       </c>
@@ -900,8 +925,8 @@
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6">
-        <v>1</v>
+      <c r="I5" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -915,23 +940,26 @@
       <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="29">
-        <f>J5+L5</f>
+      <c r="P5" s="29">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P5" s="28">
-        <f>K5+M5</f>
+      <c r="Q5" s="28">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="30">
-        <f>P5-O5</f>
+      <c r="R5" s="30">
+        <f>Q5-P5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="E6" s="6">
         <v>3035</v>
       </c>
@@ -944,35 +972,55 @@
       <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>6</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>12</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="29">
-        <f>J6+L6</f>
+      <c r="P6" s="29">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P6" s="28">
-        <f>K6+M6</f>
+      <c r="Q6" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
-        <f>P6-O6</f>
+      <c r="R6" s="30">
+        <f>Q6-P6</f>
         <v>-18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="E7" s="6">
+        <v>3041</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
